--- a/data/trans_dic/P36BPD04_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1628751281357178</v>
+        <v>0.159475137377875</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1987599331746152</v>
+        <v>0.20058674264207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1890742432252466</v>
+        <v>0.1890331133054793</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2302076432896452</v>
+        <v>0.2286389382874017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2669711159705284</v>
+        <v>0.2654686672027771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2348726049540453</v>
+        <v>0.2376472879155966</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1553848733128157</v>
+        <v>0.1593125716228173</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1858935144604294</v>
+        <v>0.1838341563290872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1824439834695214</v>
+        <v>0.1804717615369475</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2325428032338503</v>
+        <v>0.2341366578716249</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.25205074820757</v>
+        <v>0.2568391102065885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.233695939086902</v>
+        <v>0.2332381211105255</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2342683171605598</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3021009946126038</v>
+        <v>0.3021009946126037</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2535228265242487</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1960350566743389</v>
+        <v>0.1945879711274056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2451730810363893</v>
+        <v>0.2482702342170883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2176370078763619</v>
+        <v>0.2216615540811364</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2803110693546125</v>
+        <v>0.2779462545767944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.36018750387272</v>
+        <v>0.3602734768460229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2866735684267072</v>
+        <v>0.2868389871022847</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1850108515084445</v>
+        <v>0.1843083310493252</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1717237993613235</v>
+        <v>0.1727380057650021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1868772888141736</v>
+        <v>0.1859253330551235</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2411180593686065</v>
+        <v>0.2397529724767681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2200196262050446</v>
+        <v>0.2190168102610695</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2235358315910909</v>
+        <v>0.2241168216221862</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1984914437382312</v>
+        <v>0.1984914437382311</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1882237675580026</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1603734752579523</v>
+        <v>0.1635603361685252</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1656706644174326</v>
+        <v>0.1673152236333547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.171302784394807</v>
+        <v>0.1714904658824501</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2384347294115963</v>
+        <v>0.2436896516558764</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2123449474463222</v>
+        <v>0.2124830576949912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.21509152340188</v>
+        <v>0.2142690735257429</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1147772387256456</v>
+        <v>0.1213544241412595</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1616066478649993</v>
+        <v>0.1602482018008471</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1619871407502783</v>
+        <v>0.1596906397684547</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2978654500164649</v>
+        <v>0.307138676325925</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2148159115580834</v>
+        <v>0.213726504471638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2172163111037003</v>
+        <v>0.2180068482729136</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.2062761248966117</v>
+        <v>0.2062761248966118</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.2040024758432052</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1911659329651282</v>
+        <v>0.1906708031250165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1926218095483973</v>
+        <v>0.1925875103380779</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1955589324908189</v>
+        <v>0.1954183837308608</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2237019626474484</v>
+        <v>0.2223812896950882</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2156510897558195</v>
+        <v>0.2154902586470892</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2149304614744273</v>
+        <v>0.2148742283060925</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89682</v>
+        <v>87810</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>97077</v>
+        <v>97969</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>196454</v>
+        <v>196411</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>126756</v>
+        <v>125893</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>130392</v>
+        <v>129658</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>244039</v>
+        <v>246922</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75084</v>
+        <v>76982</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78660</v>
+        <v>77788</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>165359</v>
+        <v>163571</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>112367</v>
+        <v>113138</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>106654</v>
+        <v>108680</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>211811</v>
+        <v>211397</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>92452</v>
+        <v>91770</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45830</v>
+        <v>46409</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>143323</v>
+        <v>145973</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>132198</v>
+        <v>131083</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67329</v>
+        <v>67346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>188786</v>
+        <v>188895</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>209196</v>
+        <v>208402</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147696</v>
+        <v>148569</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>372036</v>
+        <v>370141</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>272638</v>
+        <v>271095</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189234</v>
+        <v>188372</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>445016</v>
+        <v>446173</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>90913</v>
+        <v>92719</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>137557</v>
+        <v>138923</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>239342</v>
+        <v>239604</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>135164</v>
+        <v>138143</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>176311</v>
+        <v>176426</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>300523</v>
+        <v>299374</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>27228</v>
+        <v>28789</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>136377</v>
+        <v>135230</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>175126</v>
+        <v>172643</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>70662</v>
+        <v>72862</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>181279</v>
+        <v>180360</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>234835</v>
+        <v>235689</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>657664</v>
+        <v>655960</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>699747</v>
+        <v>699622</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1383193</v>
+        <v>1382199</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>769596</v>
+        <v>765053</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>783406</v>
+        <v>782822</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1520209</v>
+        <v>1519811</v>
       </c>
     </row>
     <row r="32">
